--- a/Assignment fore HLR & Test Case/HLR & Test Case .xlsx
+++ b/Assignment fore HLR & Test Case/HLR & Test Case .xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\assignment\Module 2\Assignment fore HLR &amp; Test Case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{66B4E894-BFAA-4035-8B94-BF248D008F25}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DBBE2C5-BB4C-479B-BCF3-D5CBEE884D3E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7520" xr2:uid="{1A11C545-9D51-42A2-AECA-EA5A83992EB4}"/>
   </bookViews>
@@ -19,8 +19,8 @@
     <sheet name="tast case from facebook" sheetId="11" r:id="rId4"/>
     <sheet name="HLR for whatsapp web" sheetId="4" r:id="rId5"/>
     <sheet name="tast case from whatsapp web " sheetId="5" r:id="rId6"/>
-    <sheet name="tast case from compos mail funt" sheetId="7" r:id="rId7"/>
-    <sheet name="tast case from whatsapp groupch" sheetId="6" r:id="rId8"/>
+    <sheet name="tast case from whatsapp groupch" sheetId="6" r:id="rId7"/>
+    <sheet name="tast case from compos mail funt" sheetId="7" r:id="rId8"/>
     <sheet name="tast cast from flipkart" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -962,9 +962,6 @@
     <t>User has an account</t>
   </si>
   <si>
-    <t>Enter correct email &amp; password, click login</t>
-  </si>
-  <si>
     <t>User is redirected to homepage</t>
   </si>
   <si>
@@ -974,9 +971,6 @@
     <t>Empty Login Fields</t>
   </si>
   <si>
-    <t>Click login without entering credentials</t>
-  </si>
-  <si>
     <t>Validation message shown</t>
   </si>
   <si>
@@ -986,9 +980,6 @@
     <t>User is logged in</t>
   </si>
   <si>
-    <t>Enter product name in search box</t>
-  </si>
-  <si>
     <t>"Mobile"</t>
   </si>
   <si>
@@ -1001,9 +992,6 @@
     <t>Product available</t>
   </si>
   <si>
-    <t>Click 'Add to Cart' on product page</t>
-  </si>
-  <si>
     <t>Product ID: P001</t>
   </si>
   <si>
@@ -1016,9 +1004,6 @@
     <t>User logged in &amp; items in cart</t>
   </si>
   <si>
-    <t>Navigate to cart page</t>
-  </si>
-  <si>
     <t>Cart displays correct items</t>
   </si>
   <si>
@@ -1028,9 +1013,6 @@
     <t>Logged in, cart not empty</t>
   </si>
   <si>
-    <t>Enter address and valid card, click Place Order</t>
-  </si>
-  <si>
     <t>Card: 4111-xxxx-xxxx-1111</t>
   </si>
   <si>
@@ -1040,18 +1022,12 @@
     <t>Save Delivery Address</t>
   </si>
   <si>
-    <t>Add new address in profile</t>
-  </si>
-  <si>
     <t>Address: 123 XYZ Street</t>
   </si>
   <si>
     <t>Address saved successfully</t>
   </si>
   <si>
-    <t>Click Logout</t>
-  </si>
-  <si>
     <t>Redirected to login screen</t>
   </si>
   <si>
@@ -1061,9 +1037,6 @@
     <t>Products loaded</t>
   </si>
   <si>
-    <t>Apply brand filter</t>
-  </si>
-  <si>
     <t>Brand: Samsung</t>
   </si>
   <si>
@@ -1076,9 +1049,6 @@
     <t>Product is visible</t>
   </si>
   <si>
-    <t>Click ‘Add to Wishlist’</t>
-  </si>
-  <si>
     <t>Product ID: P005</t>
   </si>
   <si>
@@ -1091,9 +1061,6 @@
     <t>Wishlist has items</t>
   </si>
   <si>
-    <t>Click ‘Remove’ in wishlist</t>
-  </si>
-  <si>
     <t>Item removed from wishlist</t>
   </si>
   <si>
@@ -1103,9 +1070,6 @@
     <t>Product visible</t>
   </si>
   <si>
-    <t>Click ‘Buy Now’</t>
-  </si>
-  <si>
     <t>Product ID: P008</t>
   </si>
   <si>
@@ -1118,9 +1082,6 @@
     <t>Email exists</t>
   </si>
   <si>
-    <t>Enter email in ‘Forgot Password’</t>
-  </si>
-  <si>
     <t>Reset link sent to email</t>
   </si>
   <si>
@@ -1130,9 +1091,6 @@
     <t>Product in cart</t>
   </si>
   <si>
-    <t>Click ‘+’ icon to increase quantity</t>
-  </si>
-  <si>
     <t>Product ID: P002, Qty: 2</t>
   </si>
   <si>
@@ -1146,9 +1104,6 @@
   </si>
   <si>
     <t>Track Order</t>
-  </si>
-  <si>
-    <t>Go to order and click ‘Track’</t>
   </si>
   <si>
     <t>Order tracking information shown</t>
@@ -2115,6 +2070,56 @@
   </si>
   <si>
     <t>1.Enter invalid special characters in search</t>
+  </si>
+  <si>
+    <t>1.Enter correct email 
+2.password
+3.click login</t>
+  </si>
+  <si>
+    <t>1.Click login without entering credentials</t>
+  </si>
+  <si>
+    <t>1.Enter product name in search box</t>
+  </si>
+  <si>
+    <t>1.Click 'Add to Cart' on product page</t>
+  </si>
+  <si>
+    <t>1.Navigate to cart page</t>
+  </si>
+  <si>
+    <t>1.Enter address 
+2.valid card
+3.click Place Order</t>
+  </si>
+  <si>
+    <t>1.Add new address in profile</t>
+  </si>
+  <si>
+    <t>1.Click Logout</t>
+  </si>
+  <si>
+    <t>1.Apply brand filter</t>
+  </si>
+  <si>
+    <t>1.Click ‘Add to Wishlist’</t>
+  </si>
+  <si>
+    <t>1.Click ‘Remove’ in wishlist</t>
+  </si>
+  <si>
+    <t>1.Click ‘Buy Now’</t>
+  </si>
+  <si>
+    <t>1.Enter email in ‘Forgot Password’</t>
+  </si>
+  <si>
+    <t>1.Click ‘+’ icon to increase quantity</t>
+  </si>
+  <si>
+    <t>1.Go to order 
+2.click ‘Track’</t>
   </si>
 </sst>
 </file>
@@ -2308,7 +2313,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2347,9 +2352,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3120,7 +3122,7 @@
   <dimension ref="A2:O26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:O5"/>
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3131,67 +3133,67 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="29"/>
-      <c r="O5" s="29"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="28"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="25" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3338,7 +3340,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="A21" s="11">
         <v>9.1</v>
       </c>
@@ -3420,8 +3422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0875AA63-AA97-421B-B9F2-6846E294A00C}">
   <dimension ref="A3:P29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:P6"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3437,81 +3439,81 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="G3" s="29" t="s">
+      <c r="G3" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="30"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="30"/>
-      <c r="O5" s="30"/>
-      <c r="P5" s="30"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="29"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="30"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
     </row>
     <row r="9" spans="1:16" ht="29" x14ac:dyDescent="0.35">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="F9" s="27" t="s">
+      <c r="F9" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="G9" s="27" t="s">
+      <c r="G9" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="H9" s="27" t="s">
+      <c r="H9" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="I9" s="27" t="s">
+      <c r="I9" s="22" t="s">
         <v>100</v>
       </c>
     </row>
@@ -3523,24 +3525,24 @@
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>579</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>580</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>655</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>581</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>582</v>
-      </c>
-      <c r="H10" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>640</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="H10" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" s="4" t="s">
         <v>106</v>
       </c>
     </row>
@@ -3552,24 +3554,24 @@
         <v>2</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>584</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>656</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>585</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>586</v>
-      </c>
-      <c r="H11" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>641</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" s="4" t="s">
         <v>106</v>
       </c>
     </row>
@@ -3581,51 +3583,51 @@
         <v>3</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>587</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>588</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>657</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>589</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>590</v>
-      </c>
-      <c r="H12" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>642</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="H12" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="I12" s="4" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="29" x14ac:dyDescent="0.35">
-      <c r="A13" s="16">
+      <c r="A13" s="15">
         <v>4</v>
       </c>
-      <c r="B13" s="16">
+      <c r="B13" s="15">
         <v>3.1</v>
       </c>
-      <c r="C13" s="16" t="s">
-        <v>591</v>
+      <c r="C13" s="15" t="s">
+        <v>576</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>592</v>
+        <v>577</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>658</v>
+        <v>643</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>593</v>
+        <v>578</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>594</v>
+        <v>579</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>595</v>
+        <v>580</v>
       </c>
       <c r="I13" s="16" t="s">
         <v>226</v>
@@ -3639,24 +3641,24 @@
         <v>4</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>596</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>588</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>659</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>597</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>598</v>
-      </c>
-      <c r="H14" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="H14" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="I14" s="4" t="s">
         <v>106</v>
       </c>
     </row>
@@ -3668,51 +3670,51 @@
         <v>5</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>599</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>660</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>600</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>601</v>
-      </c>
-      <c r="H15" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="H15" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="I15" s="4" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="29" x14ac:dyDescent="0.35">
-      <c r="A16" s="16">
+      <c r="A16" s="15">
         <v>7</v>
       </c>
-      <c r="B16" s="16">
+      <c r="B16" s="15">
         <v>5.0999999999999996</v>
       </c>
-      <c r="C16" s="16" t="s">
-        <v>602</v>
+      <c r="C16" s="15" t="s">
+        <v>587</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>603</v>
+        <v>588</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>661</v>
+        <v>646</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>604</v>
+        <v>589</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>605</v>
+        <v>590</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>606</v>
+        <v>591</v>
       </c>
       <c r="I16" s="16" t="s">
         <v>226</v>
@@ -3726,24 +3728,24 @@
         <v>5.2</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>607</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>608</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>662</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>609</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>610</v>
-      </c>
-      <c r="H17" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>594</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="H17" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="I17" s="4" t="s">
         <v>106</v>
       </c>
     </row>
@@ -3755,24 +3757,24 @@
         <v>6</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>588</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>663</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>612</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>613</v>
-      </c>
-      <c r="H18" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="H18" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="I18" s="4" t="s">
         <v>106</v>
       </c>
     </row>
@@ -3784,51 +3786,51 @@
         <v>7</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>614</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>588</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>664</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>615</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>616</v>
-      </c>
-      <c r="H19" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>600</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>601</v>
+      </c>
+      <c r="H19" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="I19" s="4" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="16">
+      <c r="A20" s="15">
         <v>11</v>
       </c>
-      <c r="B20" s="16">
+      <c r="B20" s="15">
         <v>7.1</v>
       </c>
-      <c r="C20" s="16" t="s">
-        <v>617</v>
+      <c r="C20" s="15" t="s">
+        <v>602</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>618</v>
+        <v>603</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>665</v>
+        <v>650</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>619</v>
+        <v>604</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>620</v>
+        <v>605</v>
       </c>
       <c r="H20" s="16" t="s">
-        <v>621</v>
+        <v>606</v>
       </c>
       <c r="I20" s="16" t="s">
         <v>226</v>
@@ -3842,24 +3844,24 @@
         <v>8</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>588</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>666</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>623</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>624</v>
-      </c>
-      <c r="H21" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>651</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>608</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="H21" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="I21" s="4" t="s">
         <v>106</v>
       </c>
     </row>
@@ -3871,24 +3873,24 @@
         <v>9</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>625</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>588</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>667</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>626</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>627</v>
-      </c>
-      <c r="H22" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>611</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>612</v>
+      </c>
+      <c r="H22" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="I22" s="4" t="s">
         <v>106</v>
       </c>
     </row>
@@ -3900,51 +3902,51 @@
         <v>9.1</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>628</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>629</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>668</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>630</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>631</v>
-      </c>
-      <c r="H23" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>616</v>
+      </c>
+      <c r="H23" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="I23" s="2" t="s">
+      <c r="I23" s="4" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A24" s="16">
+      <c r="A24" s="15">
         <v>15</v>
       </c>
-      <c r="B24" s="16">
+      <c r="B24" s="15">
         <v>10</v>
       </c>
-      <c r="C24" s="16" t="s">
-        <v>518</v>
+      <c r="C24" s="15" t="s">
+        <v>503</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>588</v>
+        <v>573</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>669</v>
+        <v>654</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>632</v>
+        <v>617</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>633</v>
+        <v>618</v>
       </c>
       <c r="H24" s="16" t="s">
-        <v>634</v>
+        <v>619</v>
       </c>
       <c r="I24" s="16" t="s">
         <v>226</v>
@@ -3958,51 +3960,51 @@
         <v>10.1</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>635</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>636</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>670</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>637</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>638</v>
-      </c>
-      <c r="H25" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>655</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>622</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>623</v>
+      </c>
+      <c r="H25" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="I25" s="2" t="s">
+      <c r="I25" s="4" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A26" s="16">
+      <c r="A26" s="15">
         <v>17</v>
       </c>
-      <c r="B26" s="16">
+      <c r="B26" s="15">
         <v>10.199999999999999</v>
       </c>
-      <c r="C26" s="16" t="s">
-        <v>639</v>
+      <c r="C26" s="15" t="s">
+        <v>624</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>640</v>
+        <v>625</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>671</v>
+        <v>656</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>604</v>
+        <v>589</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>641</v>
+        <v>626</v>
       </c>
       <c r="H26" s="16" t="s">
-        <v>642</v>
+        <v>627</v>
       </c>
       <c r="I26" s="16" t="s">
         <v>226</v>
@@ -4016,24 +4018,24 @@
         <v>10.3</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>643</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>644</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>672</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>645</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>646</v>
-      </c>
-      <c r="H27" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>629</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>657</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>630</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>631</v>
+      </c>
+      <c r="H27" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="I27" s="2" t="s">
+      <c r="I27" s="4" t="s">
         <v>106</v>
       </c>
     </row>
@@ -4045,51 +4047,51 @@
         <v>10.4</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>647</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>648</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>673</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>649</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>650</v>
-      </c>
-      <c r="H28" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>633</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>658</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>634</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>635</v>
+      </c>
+      <c r="H28" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="I28" s="2" t="s">
+      <c r="I28" s="4" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="16">
+      <c r="A29" s="15">
         <v>20</v>
       </c>
-      <c r="B29" s="16">
+      <c r="B29" s="15">
         <v>11</v>
       </c>
-      <c r="C29" s="16" t="s">
-        <v>651</v>
+      <c r="C29" s="15" t="s">
+        <v>636</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>603</v>
+        <v>588</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>674</v>
+        <v>659</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>652</v>
+        <v>637</v>
       </c>
       <c r="G29" s="16" t="s">
-        <v>653</v>
+        <v>638</v>
       </c>
       <c r="H29" s="16" t="s">
-        <v>654</v>
+        <v>639</v>
       </c>
       <c r="I29" s="16" t="s">
         <v>226</v>
@@ -4123,51 +4125,51 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="H2" s="29" t="s">
+      <c r="H2" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="30"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="27" t="s">
         <v>2</v>
       </c>
     </row>
@@ -4444,51 +4446,51 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B2" s="29" t="s">
-        <v>578</v>
-      </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
+      <c r="B2" s="28" t="s">
+        <v>563</v>
+      </c>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="G7" s="23" t="s">
+      <c r="G7" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="H7" s="23" t="s">
+      <c r="H7" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="I7" s="23" t="s">
+      <c r="I7" s="22" t="s">
         <v>100</v>
       </c>
     </row>
@@ -4500,22 +4502,22 @@
         <v>1</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>475</v>
+        <v>460</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>476</v>
+        <v>461</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>570</v>
+        <v>555</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>478</v>
+        <v>463</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>106</v>
@@ -4529,53 +4531,53 @@
         <v>2</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>480</v>
+        <v>465</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>481</v>
+        <v>466</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>571</v>
+        <v>556</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>482</v>
+        <v>467</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>483</v>
+        <v>468</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="17">
+      <c r="A10" s="16">
         <v>3</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="16">
         <v>2</v>
       </c>
-      <c r="C10" s="17" t="s">
-        <v>484</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>481</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>553</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>485</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>486</v>
-      </c>
-      <c r="H10" s="17" t="s">
-        <v>487</v>
-      </c>
-      <c r="I10" s="19" t="s">
+      <c r="C10" s="16" t="s">
+        <v>469</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>466</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>538</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>470</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>471</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>472</v>
+      </c>
+      <c r="I10" s="18" t="s">
         <v>226</v>
       </c>
     </row>
@@ -4587,53 +4589,53 @@
         <v>3</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>488</v>
+        <v>473</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>554</v>
+        <v>539</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>82</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="58" x14ac:dyDescent="0.35">
-      <c r="A12" s="17">
+      <c r="A12" s="16">
         <v>5</v>
       </c>
-      <c r="B12" s="17">
+      <c r="B12" s="16">
         <v>4</v>
       </c>
-      <c r="C12" s="17" t="s">
-        <v>492</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>489</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>572</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>493</v>
-      </c>
-      <c r="G12" s="17" t="s">
-        <v>494</v>
-      </c>
-      <c r="H12" s="17" t="s">
-        <v>495</v>
-      </c>
-      <c r="I12" s="19" t="s">
+      <c r="C12" s="16" t="s">
+        <v>477</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>474</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>557</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>478</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>479</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>480</v>
+      </c>
+      <c r="I12" s="18" t="s">
         <v>226</v>
       </c>
     </row>
@@ -4645,22 +4647,22 @@
         <v>5</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>555</v>
+        <v>540</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>82</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>497</v>
+        <v>482</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>106</v>
@@ -4674,22 +4676,22 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>499</v>
+        <v>484</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>556</v>
+        <v>541</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>82</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>500</v>
+        <v>485</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>106</v>
@@ -4703,53 +4705,53 @@
         <v>6</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>501</v>
+        <v>486</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>557</v>
+        <v>542</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>82</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>502</v>
+        <v>487</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
       <c r="I15" s="4" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A16" s="17">
+      <c r="A16" s="16">
         <v>9</v>
       </c>
-      <c r="B16" s="17">
+      <c r="B16" s="16">
         <v>6.1</v>
       </c>
-      <c r="C16" s="17" t="s">
-        <v>503</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>504</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>558</v>
-      </c>
-      <c r="F16" s="17" t="s">
+      <c r="C16" s="16" t="s">
+        <v>488</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>489</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>543</v>
+      </c>
+      <c r="F16" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="G16" s="17" t="s">
-        <v>505</v>
-      </c>
-      <c r="H16" s="17" t="s">
-        <v>506</v>
-      </c>
-      <c r="I16" s="19" t="s">
+      <c r="G16" s="16" t="s">
+        <v>490</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>491</v>
+      </c>
+      <c r="I16" s="18" t="s">
         <v>226</v>
       </c>
     </row>
@@ -4761,22 +4763,22 @@
         <v>6.2</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>507</v>
+        <v>492</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>559</v>
+        <v>544</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>82</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>508</v>
+        <v>493</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
       <c r="I17" s="4" t="s">
         <v>106</v>
@@ -4790,22 +4792,22 @@
         <v>6.3</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>509</v>
+        <v>494</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>560</v>
+        <v>545</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>82</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>510</v>
+        <v>495</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
       <c r="I18" s="4" t="s">
         <v>106</v>
@@ -4819,22 +4821,22 @@
         <v>6.4</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>511</v>
+        <v>496</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>561</v>
+        <v>546</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>82</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>512</v>
+        <v>497</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
       <c r="I19" s="4" t="s">
         <v>106</v>
@@ -4848,22 +4850,22 @@
         <v>6.5</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>513</v>
+        <v>498</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>499</v>
+        <v>484</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>562</v>
+        <v>547</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>82</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
       <c r="I20" s="4" t="s">
         <v>106</v>
@@ -4877,22 +4879,22 @@
         <v>6.6</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>515</v>
+        <v>500</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>563</v>
+        <v>548</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
       <c r="I21" s="4" t="s">
         <v>106</v>
@@ -4906,22 +4908,22 @@
         <v>7</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>518</v>
+        <v>503</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>564</v>
+        <v>549</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>82</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
       <c r="I22" s="4" t="s">
         <v>106</v>
@@ -4935,22 +4937,22 @@
         <v>7.1</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>520</v>
+        <v>505</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>521</v>
+        <v>506</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>565</v>
+        <v>550</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>82</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>522</v>
+        <v>507</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
       <c r="I23" s="4" t="s">
         <v>106</v>
@@ -4964,53 +4966,53 @@
         <v>7.2</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>523</v>
+        <v>508</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>524</v>
+        <v>509</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>566</v>
+        <v>551</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>82</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>525</v>
+        <v>510</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
       <c r="I24" s="4" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A25" s="17">
+      <c r="A25" s="16">
         <v>18</v>
       </c>
-      <c r="B25" s="17">
+      <c r="B25" s="16">
         <v>7.3</v>
       </c>
-      <c r="C25" s="17" t="s">
-        <v>526</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>527</v>
-      </c>
-      <c r="E25" s="17" t="s">
-        <v>567</v>
-      </c>
-      <c r="F25" s="17" t="s">
-        <v>528</v>
-      </c>
-      <c r="G25" s="17" t="s">
-        <v>529</v>
-      </c>
-      <c r="H25" s="17" t="s">
-        <v>530</v>
-      </c>
-      <c r="I25" s="19" t="s">
+      <c r="C25" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>512</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>552</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>513</v>
+      </c>
+      <c r="G25" s="16" t="s">
+        <v>514</v>
+      </c>
+      <c r="H25" s="16" t="s">
+        <v>515</v>
+      </c>
+      <c r="I25" s="18" t="s">
         <v>226</v>
       </c>
     </row>
@@ -5022,22 +5024,22 @@
         <v>7.4</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>531</v>
+        <v>516</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>532</v>
+        <v>517</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>568</v>
+        <v>553</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>82</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>533</v>
+        <v>518</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
       <c r="I26" s="4" t="s">
         <v>106</v>
@@ -5051,22 +5053,22 @@
         <v>7.5</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>534</v>
+        <v>519</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>535</v>
+        <v>520</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>569</v>
+        <v>554</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>82</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>536</v>
+        <v>521</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
       <c r="I27" s="4" t="s">
         <v>106</v>
@@ -5080,13 +5082,13 @@
         <v>2</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>537</v>
+        <v>522</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>481</v>
+        <v>466</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>573</v>
+        <v>558</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>82</v>
@@ -5095,7 +5097,7 @@
         <v>225</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
       <c r="I28" s="4" t="s">
         <v>106</v>
@@ -5109,53 +5111,53 @@
         <v>4</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>538</v>
+        <v>523</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>574</v>
+        <v>559</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>82</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>539</v>
+        <v>524</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
       <c r="I29" s="4" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A30" s="17">
+      <c r="A30" s="16">
         <v>23</v>
       </c>
-      <c r="B30" s="17">
+      <c r="B30" s="16">
         <v>7.3</v>
       </c>
-      <c r="C30" s="17" t="s">
-        <v>540</v>
-      </c>
-      <c r="D30" s="17" t="s">
-        <v>541</v>
-      </c>
-      <c r="E30" s="17" t="s">
-        <v>575</v>
-      </c>
-      <c r="F30" s="17" t="s">
-        <v>542</v>
-      </c>
-      <c r="G30" s="17" t="s">
-        <v>543</v>
-      </c>
-      <c r="H30" s="17" t="s">
-        <v>544</v>
-      </c>
-      <c r="I30" s="19" t="s">
+      <c r="C30" s="16" t="s">
+        <v>525</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>526</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>560</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>527</v>
+      </c>
+      <c r="G30" s="16" t="s">
+        <v>528</v>
+      </c>
+      <c r="H30" s="16" t="s">
+        <v>529</v>
+      </c>
+      <c r="I30" s="18" t="s">
         <v>226</v>
       </c>
     </row>
@@ -5167,53 +5169,53 @@
         <v>6.2</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>545</v>
+        <v>530</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>546</v>
+        <v>531</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>576</v>
+        <v>561</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>547</v>
+        <v>532</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>548</v>
+        <v>533</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
       <c r="I31" s="4" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="17">
+      <c r="A32" s="16">
         <v>25</v>
       </c>
-      <c r="B32" s="17">
+      <c r="B32" s="16">
         <v>6.4</v>
       </c>
-      <c r="C32" s="17" t="s">
-        <v>549</v>
-      </c>
-      <c r="D32" s="17" t="s">
-        <v>550</v>
-      </c>
-      <c r="E32" s="17" t="s">
-        <v>577</v>
-      </c>
-      <c r="F32" s="17" t="s">
+      <c r="C32" s="16" t="s">
+        <v>534</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>535</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>562</v>
+      </c>
+      <c r="F32" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="G32" s="17" t="s">
-        <v>551</v>
-      </c>
-      <c r="H32" s="17" t="s">
-        <v>552</v>
-      </c>
-      <c r="I32" s="19" t="s">
+      <c r="G32" s="16" t="s">
+        <v>536</v>
+      </c>
+      <c r="H32" s="16" t="s">
+        <v>537</v>
+      </c>
+      <c r="I32" s="18" t="s">
         <v>226</v>
       </c>
     </row>
@@ -5245,47 +5247,47 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="G3" s="29" t="s">
+      <c r="G3" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="22" t="s">
         <v>86</v>
       </c>
     </row>
@@ -5294,10 +5296,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>396</v>
+        <v>381</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="58" x14ac:dyDescent="0.35">
@@ -5305,10 +5307,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
@@ -5316,10 +5318,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>398</v>
+        <v>383</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
@@ -5327,21 +5329,21 @@
         <v>4</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
         <v>5</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="58" x14ac:dyDescent="0.35">
@@ -5349,21 +5351,21 @@
         <v>6</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="58" x14ac:dyDescent="0.35">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
         <v>7</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>402</v>
+        <v>387</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -5371,32 +5373,32 @@
         <v>8</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
         <v>9</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
         <v>10</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -5404,109 +5406,109 @@
         <v>11</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A21" s="4">
         <v>12</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
         <v>13</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A23" s="4">
         <v>14</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
         <v>15</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A25" s="4">
         <v>16</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="A26" s="4">
         <v>17</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A27" s="4">
         <v>18</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A28" s="4">
         <v>19</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A29" s="4">
         <v>20</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
     </row>
   </sheetData>
@@ -5523,7 +5525,7 @@
   <dimension ref="A3:M29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:I9"/>
+      <selection activeCell="D3" sqref="D3:M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5539,81 +5541,81 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="28"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="F9" s="23" t="s">
+      <c r="F9" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="G9" s="23" t="s">
+      <c r="G9" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="H9" s="23" t="s">
+      <c r="H9" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="I9" s="23" t="s">
+      <c r="I9" s="22" t="s">
         <v>100</v>
       </c>
     </row>
@@ -5631,7 +5633,7 @@
         <v>102</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>417</v>
+        <v>402</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>103</v>
@@ -5660,7 +5662,7 @@
         <v>108</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>82</v>
@@ -5689,10 +5691,10 @@
         <v>111</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>416</v>
+        <v>401</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>112</v>
@@ -5718,7 +5720,7 @@
         <v>114</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>115</v>
@@ -5747,7 +5749,7 @@
         <v>118</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>119</v>
@@ -5776,7 +5778,7 @@
         <v>108</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>122</v>
@@ -5805,7 +5807,7 @@
         <v>124</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>82</v>
@@ -5834,7 +5836,7 @@
         <v>108</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>126</v>
@@ -5863,7 +5865,7 @@
         <v>108</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>425</v>
+        <v>410</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>82</v>
@@ -5892,7 +5894,7 @@
         <v>130</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>131</v>
@@ -5921,7 +5923,7 @@
         <v>134</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>427</v>
+        <v>412</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>135</v>
@@ -5950,7 +5952,7 @@
         <v>134</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>82</v>
@@ -5979,7 +5981,7 @@
         <v>140</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>429</v>
+        <v>414</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>82</v>
@@ -6008,7 +6010,7 @@
         <v>140</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>82</v>
@@ -6037,7 +6039,7 @@
         <v>134</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>145</v>
@@ -6066,7 +6068,7 @@
         <v>148</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>82</v>
@@ -6095,7 +6097,7 @@
         <v>151</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>82</v>
@@ -6124,7 +6126,7 @@
         <v>108</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>434</v>
+        <v>419</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>82</v>
@@ -6153,7 +6155,7 @@
         <v>134</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>435</v>
+        <v>420</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>156</v>
@@ -6182,7 +6184,7 @@
         <v>159</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>436</v>
+        <v>421</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>82</v>
@@ -6206,11 +6208,588 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6607534E-FFB0-41FC-A1F8-EADD363A43AC}">
+  <dimension ref="A2:N34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="3" width="17.1796875" customWidth="1"/>
+    <col min="4" max="4" width="17.26953125" customWidth="1"/>
+    <col min="5" max="7" width="17.36328125" customWidth="1"/>
+    <col min="8" max="8" width="14.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C2" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A9" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="H9" s="22" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="4">
+        <v>1</v>
+      </c>
+      <c r="B10" s="4">
+        <v>1</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="4">
+        <v>2</v>
+      </c>
+      <c r="B11" s="4">
+        <v>2</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="4">
+        <v>3</v>
+      </c>
+      <c r="B12" s="4">
+        <v>3</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="4">
+        <v>4</v>
+      </c>
+      <c r="B13" s="4">
+        <v>4</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="4">
+        <v>5</v>
+      </c>
+      <c r="B14" s="4">
+        <v>5</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="58" x14ac:dyDescent="0.35">
+      <c r="A15" s="4">
+        <v>6</v>
+      </c>
+      <c r="B15" s="4">
+        <v>6</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="4">
+        <v>7</v>
+      </c>
+      <c r="B16" s="4">
+        <v>7</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="4">
+        <v>8</v>
+      </c>
+      <c r="B17" s="4">
+        <v>8</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A18" s="4">
+        <v>9</v>
+      </c>
+      <c r="B18" s="4">
+        <v>9</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="4">
+        <v>10</v>
+      </c>
+      <c r="B19" s="4">
+        <v>10</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="43" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="4">
+        <v>11</v>
+      </c>
+      <c r="B20" s="4">
+        <v>11</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A21" s="4">
+        <v>12</v>
+      </c>
+      <c r="B21" s="4">
+        <v>12</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="4">
+        <v>13</v>
+      </c>
+      <c r="B22" s="4">
+        <v>13</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A23" s="4">
+        <v>14</v>
+      </c>
+      <c r="B23" s="4">
+        <v>14</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="4">
+        <v>15</v>
+      </c>
+      <c r="B24" s="4">
+        <v>15</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B30" s="2"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B31" s="2"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B32" s="2"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B33" s="2"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B34" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C2:N6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D8D4064-25E2-4F87-9F3A-DB70B67F2685}">
   <dimension ref="A3:L34"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:I9"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6223,89 +6802,89 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="28" t="s">
         <v>304</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" s="29"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
+      <c r="A4" s="28"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5" s="29"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
+      <c r="A5" s="28"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A6" s="29"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
+      <c r="A6" s="28"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="22" t="s">
         <v>213</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="22" t="s">
         <v>214</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="F9" s="23" t="s">
+      <c r="F9" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="G9" s="23" t="s">
+      <c r="G9" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="H9" s="23" t="s">
+      <c r="H9" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="I9" s="23" t="s">
+      <c r="I9" s="22" t="s">
         <v>100</v>
       </c>
     </row>
@@ -6323,7 +6902,7 @@
         <v>108</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>305</v>
@@ -6352,7 +6931,7 @@
         <v>108</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>438</v>
+        <v>423</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>306</v>
@@ -6381,7 +6960,7 @@
         <v>108</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>223</v>
@@ -6410,7 +6989,7 @@
         <v>108</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>440</v>
+        <v>425</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>228</v>
@@ -6439,7 +7018,7 @@
         <v>108</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>219</v>
@@ -6468,7 +7047,7 @@
         <v>108</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>233</v>
@@ -6497,7 +7076,7 @@
         <v>108</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>443</v>
+        <v>428</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>237</v>
@@ -6526,7 +7105,7 @@
         <v>108</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>241</v>
@@ -6555,7 +7134,7 @@
         <v>108</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>474</v>
+        <v>459</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>244</v>
@@ -6584,7 +7163,7 @@
         <v>108</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>248</v>
@@ -6613,7 +7192,7 @@
         <v>108</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>251</v>
@@ -6642,7 +7221,7 @@
         <v>108</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>447</v>
+        <v>432</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>254</v>
@@ -6671,7 +7250,7 @@
         <v>108</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>448</v>
+        <v>433</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>258</v>
@@ -6700,7 +7279,7 @@
         <v>108</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>449</v>
+        <v>434</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>262</v>
@@ -6729,7 +7308,7 @@
         <v>263</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>82</v>
@@ -6758,7 +7337,7 @@
         <v>268</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>269</v>
@@ -6787,7 +7366,7 @@
         <v>108</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>273</v>
@@ -6816,7 +7395,7 @@
         <v>276</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>82</v>
@@ -6845,7 +7424,7 @@
         <v>280</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>82</v>
@@ -6874,7 +7453,7 @@
         <v>284</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>454</v>
+        <v>439</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>82</v>
@@ -6903,7 +7482,7 @@
         <v>287</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>455</v>
+        <v>440</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>288</v>
@@ -6932,7 +7511,7 @@
         <v>287</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>456</v>
+        <v>441</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>291</v>
@@ -6961,7 +7540,7 @@
         <v>108</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>457</v>
+        <v>442</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>294</v>
@@ -6990,7 +7569,7 @@
         <v>108</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>458</v>
+        <v>443</v>
       </c>
       <c r="F33" s="5" t="s">
         <v>297</v>
@@ -7019,7 +7598,7 @@
         <v>108</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>459</v>
+        <v>444</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>301</v>
@@ -7050,589 +7629,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6607534E-FFB0-41FC-A1F8-EADD363A43AC}">
-  <dimension ref="A2:N34"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="3" width="17.1796875" customWidth="1"/>
-    <col min="4" max="4" width="17.26953125" customWidth="1"/>
-    <col min="5" max="7" width="17.36328125" customWidth="1"/>
-    <col min="8" max="8" width="14.6328125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="31" t="s">
-        <v>161</v>
-      </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A9" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="F9" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="G9" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="H9" s="23" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="4">
-        <v>1</v>
-      </c>
-      <c r="B10" s="4">
-        <v>1</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>460</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="4">
-        <v>2</v>
-      </c>
-      <c r="B11" s="4">
-        <v>2</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>426</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="4">
-        <v>3</v>
-      </c>
-      <c r="B12" s="4">
-        <v>3</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>461</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="4">
-        <v>4</v>
-      </c>
-      <c r="B13" s="4">
-        <v>4</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>462</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="4">
-        <v>5</v>
-      </c>
-      <c r="B14" s="4">
-        <v>5</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>463</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="58" x14ac:dyDescent="0.35">
-      <c r="A15" s="4">
-        <v>6</v>
-      </c>
-      <c r="B15" s="4">
-        <v>6</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>464</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="4">
-        <v>7</v>
-      </c>
-      <c r="B16" s="4">
-        <v>7</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>465</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="4">
-        <v>8</v>
-      </c>
-      <c r="B17" s="4">
-        <v>8</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>466</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="58" x14ac:dyDescent="0.35">
-      <c r="A18" s="4">
-        <v>9</v>
-      </c>
-      <c r="B18" s="4">
-        <v>9</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>467</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="4">
-        <v>10</v>
-      </c>
-      <c r="B19" s="4">
-        <v>10</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>468</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="43" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="4">
-        <v>11</v>
-      </c>
-      <c r="B20" s="4">
-        <v>11</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>469</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A21" s="4">
-        <v>12</v>
-      </c>
-      <c r="B21" s="4">
-        <v>12</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>470</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="4">
-        <v>13</v>
-      </c>
-      <c r="B22" s="4">
-        <v>13</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>471</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A23" s="4">
-        <v>14</v>
-      </c>
-      <c r="B23" s="4">
-        <v>14</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>472</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="4">
-        <v>15</v>
-      </c>
-      <c r="B24" s="4">
-        <v>15</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>473</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B30" s="2"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B31" s="2"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B32" s="2"/>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B33" s="2"/>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B34" s="2"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C2:N6"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54287786-72BE-465D-B519-E303DE088559}">
   <dimension ref="A2:I24"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7646,70 +7648,70 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="C2" s="32" t="s">
-        <v>373</v>
-      </c>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
+      <c r="C2" s="31" t="s">
+        <v>358</v>
+      </c>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="F8" s="21" t="s">
+      <c r="F8" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="G8" s="21" t="s">
+      <c r="G8" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="H8" s="22" t="s">
+      <c r="H8" s="21" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>1</v>
       </c>
@@ -7723,13 +7725,13 @@
         <v>308</v>
       </c>
       <c r="E9" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>309</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>310</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>106</v>
@@ -7743,19 +7745,19 @@
         <v>3</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>313</v>
+        <v>661</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>82</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>106</v>
@@ -7769,25 +7771,25 @@
         <v>4</v>
       </c>
       <c r="C11" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>662</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="G11" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>319</v>
-      </c>
       <c r="H11" s="6" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>6</v>
       </c>
@@ -7795,19 +7797,19 @@
         <v>6</v>
       </c>
       <c r="C12" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>663</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>320</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>324</v>
       </c>
       <c r="H12" s="6" t="s">
         <v>106</v>
@@ -7821,19 +7823,19 @@
         <v>6.1</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>327</v>
+        <v>664</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>82</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="H13" s="6" t="s">
         <v>106</v>
@@ -7847,19 +7849,19 @@
         <v>6.2</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>331</v>
+        <v>665</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>106</v>
@@ -7873,19 +7875,19 @@
         <v>6.3</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>335</v>
+        <v>666</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="H15" s="6" t="s">
         <v>106</v>
@@ -7905,13 +7907,13 @@
         <v>108</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>338</v>
+        <v>667</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>82</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="H16" s="6" t="s">
         <v>106</v>
@@ -7925,19 +7927,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>342</v>
+        <v>668</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="H17" s="6" t="s">
         <v>106</v>
@@ -7951,19 +7953,19 @@
         <v>9</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>347</v>
+        <v>669</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="H18" s="6" t="s">
         <v>106</v>
@@ -7977,19 +7979,19 @@
         <v>10</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>352</v>
+        <v>670</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="H19" s="6" t="s">
         <v>106</v>
@@ -8003,19 +8005,19 @@
         <v>11</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>356</v>
+        <v>671</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="H20" s="6" t="s">
         <v>106</v>
@@ -8029,19 +8031,19 @@
         <v>12</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="D21" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>672</v>
+      </c>
+      <c r="F21" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="E21" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>375</v>
-      </c>
       <c r="G21" s="4" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="H21" s="6" t="s">
         <v>106</v>
@@ -8055,19 +8057,19 @@
         <v>13</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>365</v>
+        <v>673</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="H22" s="6" t="s">
         <v>106</v>
@@ -8081,19 +8083,19 @@
         <v>14</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>371</v>
+        <v>674</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>372</v>
+        <v>357</v>
       </c>
       <c r="H23" s="6" t="s">
         <v>106</v>

--- a/Assignment fore HLR & Test Case/HLR & Test Case .xlsx
+++ b/Assignment fore HLR & Test Case/HLR & Test Case .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\assignment\Module 2\Assignment fore HLR &amp; Test Case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DBBE2C5-BB4C-479B-BCF3-D5CBEE884D3E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A31D3F1-F74A-4F4F-AD6E-F13F41F835D0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7520" xr2:uid="{1A11C545-9D51-42A2-AECA-EA5A83992EB4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7520" firstSheet="6" activeTab="8" xr2:uid="{1A11C545-9D51-42A2-AECA-EA5A83992EB4}"/>
   </bookViews>
   <sheets>
     <sheet name="instagram " sheetId="1" r:id="rId1"/>
@@ -2189,7 +2189,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -2217,17 +2217,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -2313,7 +2302,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2321,7 +2310,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2330,7 +2319,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2339,22 +2328,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2365,29 +2350,26 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3121,8 +3103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D613518F-4899-47BB-BAF8-9EED0A1970E2}">
   <dimension ref="A2:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3133,276 +3115,276 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="28"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="23" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="58" x14ac:dyDescent="0.35">
-      <c r="A8" s="11">
+      <c r="A8" s="10">
         <v>1</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="11" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="58" x14ac:dyDescent="0.35">
-      <c r="A9" s="11">
+      <c r="A9" s="10">
         <v>2</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="11">
+      <c r="A10" s="10">
         <v>3</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="11">
-        <v>3.1</v>
+      <c r="A11" s="10">
+        <v>4</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="58" x14ac:dyDescent="0.35">
-      <c r="A12" s="11">
-        <v>4</v>
+      <c r="A12" s="10">
+        <v>5</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="11" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="11">
-        <v>5</v>
+      <c r="A13" s="10">
+        <v>6</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="58" x14ac:dyDescent="0.35">
-      <c r="A14" s="11">
-        <v>5.0999999999999996</v>
+      <c r="A14" s="10">
+        <v>7</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="11">
-        <v>5.2</v>
+      <c r="A15" s="10">
+        <v>8</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="11" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="58" x14ac:dyDescent="0.35">
-      <c r="A16" s="11">
-        <v>6</v>
+      <c r="A16" s="10">
+        <v>9</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="11" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="11">
-        <v>7</v>
+      <c r="A17" s="10">
+        <v>10</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="11" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="11">
-        <v>7.1</v>
+      <c r="A18" s="10">
+        <v>11</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="11" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="11">
-        <v>8</v>
+      <c r="A19" s="10">
+        <v>12</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="11" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="58" x14ac:dyDescent="0.35">
-      <c r="A20" s="11">
-        <v>9</v>
+      <c r="A20" s="10">
+        <v>13</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="11" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="58" x14ac:dyDescent="0.35">
-      <c r="A21" s="11">
-        <v>9.1</v>
+      <c r="A21" s="10">
+        <v>14</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="11" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="58" x14ac:dyDescent="0.35">
-      <c r="A22" s="11">
-        <v>10</v>
+      <c r="A22" s="10">
+        <v>15</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="11" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="11">
-        <v>10.1</v>
+      <c r="A23" s="10">
+        <v>16</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="11" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="11">
-        <v>10.199999999999999</v>
+      <c r="A24" s="10">
+        <v>17</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="11" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="11">
-        <v>10.3</v>
+      <c r="A25" s="10">
+        <v>18</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="11" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="58" x14ac:dyDescent="0.35">
-      <c r="A26" s="9">
-        <v>10.4</v>
-      </c>
-      <c r="B26" s="13" t="s">
+      <c r="A26" s="10">
+        <v>19</v>
+      </c>
+      <c r="B26" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="13" t="s">
         <v>40</v>
       </c>
     </row>
@@ -3422,8 +3404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0875AA63-AA97-421B-B9F2-6846E294A00C}">
   <dimension ref="A3:P29"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3439,92 +3421,92 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="G3" s="28" t="s">
+      <c r="G3" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="29"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="29"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="29"/>
-      <c r="O5" s="29"/>
-      <c r="P5" s="29"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="29"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="26"/>
     </row>
     <row r="9" spans="1:16" ht="29" x14ac:dyDescent="0.35">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="F9" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="G9" s="22" t="s">
+      <c r="G9" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="H9" s="22" t="s">
+      <c r="H9" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="I9" s="22" t="s">
+      <c r="I9" s="20" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="2">
+      <c r="A10" s="4">
         <v>1</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="4">
         <v>1</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="4" t="s">
         <v>564</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -3547,13 +3529,13 @@
       </c>
     </row>
     <row r="11" spans="1:16" ht="58" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="2">
+      <c r="A11" s="4">
         <v>2</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="4">
         <v>2</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="4" t="s">
         <v>568</v>
       </c>
       <c r="D11" s="4" t="s">
@@ -3576,13 +3558,13 @@
       </c>
     </row>
     <row r="12" spans="1:16" ht="29" x14ac:dyDescent="0.35">
-      <c r="A12" s="2">
+      <c r="A12" s="4">
         <v>3</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="4">
         <v>3</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="4" t="s">
         <v>572</v>
       </c>
       <c r="D12" s="4" t="s">
@@ -3605,42 +3587,42 @@
       </c>
     </row>
     <row r="13" spans="1:16" ht="29" x14ac:dyDescent="0.35">
-      <c r="A13" s="15">
+      <c r="A13" s="14">
         <v>4</v>
       </c>
-      <c r="B13" s="15">
+      <c r="B13" s="14">
         <v>3.1</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="14" t="s">
         <v>576</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="14" t="s">
         <v>577</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="14" t="s">
         <v>643</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="F13" s="14" t="s">
         <v>578</v>
       </c>
-      <c r="G13" s="16" t="s">
+      <c r="G13" s="14" t="s">
         <v>579</v>
       </c>
-      <c r="H13" s="16" t="s">
+      <c r="H13" s="14" t="s">
         <v>580</v>
       </c>
-      <c r="I13" s="16" t="s">
+      <c r="I13" s="14" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="2">
+      <c r="A14" s="4">
         <v>5</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="4">
         <v>4</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="4" t="s">
         <v>581</v>
       </c>
       <c r="D14" s="4" t="s">
@@ -3663,13 +3645,13 @@
       </c>
     </row>
     <row r="15" spans="1:16" ht="29" x14ac:dyDescent="0.35">
-      <c r="A15" s="2">
+      <c r="A15" s="4">
         <v>6</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="4">
         <v>5</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="4" t="s">
         <v>584</v>
       </c>
       <c r="D15" s="4" t="s">
@@ -3692,42 +3674,42 @@
       </c>
     </row>
     <row r="16" spans="1:16" ht="29" x14ac:dyDescent="0.35">
-      <c r="A16" s="15">
+      <c r="A16" s="14">
         <v>7</v>
       </c>
-      <c r="B16" s="15">
+      <c r="B16" s="14">
         <v>5.0999999999999996</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="14" t="s">
         <v>587</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="14" t="s">
         <v>588</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="14" t="s">
         <v>646</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="F16" s="14" t="s">
         <v>589</v>
       </c>
-      <c r="G16" s="16" t="s">
+      <c r="G16" s="14" t="s">
         <v>590</v>
       </c>
-      <c r="H16" s="16" t="s">
+      <c r="H16" s="14" t="s">
         <v>591</v>
       </c>
-      <c r="I16" s="16" t="s">
+      <c r="I16" s="14" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A17" s="2">
+      <c r="A17" s="4">
         <v>8</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="4">
         <v>5.2</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="4" t="s">
         <v>592</v>
       </c>
       <c r="D17" s="4" t="s">
@@ -3750,13 +3732,13 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="2">
+      <c r="A18" s="4">
         <v>9</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="4">
         <v>6</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="4" t="s">
         <v>596</v>
       </c>
       <c r="D18" s="4" t="s">
@@ -3779,13 +3761,13 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A19" s="2">
+      <c r="A19" s="4">
         <v>10</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="4">
         <v>7</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="4" t="s">
         <v>599</v>
       </c>
       <c r="D19" s="4" t="s">
@@ -3808,42 +3790,42 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="15">
+      <c r="A20" s="14">
         <v>11</v>
       </c>
-      <c r="B20" s="15">
+      <c r="B20" s="14">
         <v>7.1</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="14" t="s">
         <v>602</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="14" t="s">
         <v>603</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="14" t="s">
         <v>650</v>
       </c>
-      <c r="F20" s="16" t="s">
+      <c r="F20" s="14" t="s">
         <v>604</v>
       </c>
-      <c r="G20" s="16" t="s">
+      <c r="G20" s="14" t="s">
         <v>605</v>
       </c>
-      <c r="H20" s="16" t="s">
+      <c r="H20" s="14" t="s">
         <v>606</v>
       </c>
-      <c r="I20" s="16" t="s">
+      <c r="I20" s="14" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="2">
+      <c r="A21" s="4">
         <v>12</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="4">
         <v>8</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="4" t="s">
         <v>607</v>
       </c>
       <c r="D21" s="4" t="s">
@@ -3866,13 +3848,13 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A22" s="2">
+      <c r="A22" s="4">
         <v>13</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="4">
         <v>9</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="4" t="s">
         <v>610</v>
       </c>
       <c r="D22" s="4" t="s">
@@ -3895,13 +3877,13 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="2">
+      <c r="A23" s="4">
         <v>14</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="4">
         <v>9.1</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="4" t="s">
         <v>613</v>
       </c>
       <c r="D23" s="4" t="s">
@@ -3924,42 +3906,42 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A24" s="15">
+      <c r="A24" s="14">
         <v>15</v>
       </c>
-      <c r="B24" s="15">
+      <c r="B24" s="14">
         <v>10</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="14" t="s">
         <v>503</v>
       </c>
-      <c r="D24" s="16" t="s">
+      <c r="D24" s="14" t="s">
         <v>573</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="14" t="s">
         <v>654</v>
       </c>
-      <c r="F24" s="16" t="s">
+      <c r="F24" s="14" t="s">
         <v>617</v>
       </c>
-      <c r="G24" s="16" t="s">
+      <c r="G24" s="14" t="s">
         <v>618</v>
       </c>
-      <c r="H24" s="16" t="s">
+      <c r="H24" s="14" t="s">
         <v>619</v>
       </c>
-      <c r="I24" s="16" t="s">
+      <c r="I24" s="14" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A25" s="2">
+      <c r="A25" s="4">
         <v>16</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="4">
         <v>10.1</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="4" t="s">
         <v>620</v>
       </c>
       <c r="D25" s="4" t="s">
@@ -3982,42 +3964,42 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A26" s="15">
+      <c r="A26" s="14">
         <v>17</v>
       </c>
-      <c r="B26" s="15">
+      <c r="B26" s="14">
         <v>10.199999999999999</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="14" t="s">
         <v>624</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="14" t="s">
         <v>625</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="14" t="s">
         <v>656</v>
       </c>
-      <c r="F26" s="16" t="s">
+      <c r="F26" s="14" t="s">
         <v>589</v>
       </c>
-      <c r="G26" s="16" t="s">
+      <c r="G26" s="14" t="s">
         <v>626</v>
       </c>
-      <c r="H26" s="16" t="s">
+      <c r="H26" s="14" t="s">
         <v>627</v>
       </c>
-      <c r="I26" s="16" t="s">
+      <c r="I26" s="14" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A27" s="2">
+      <c r="A27" s="4">
         <v>18</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="4">
         <v>10.3</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="4" t="s">
         <v>628</v>
       </c>
       <c r="D27" s="4" t="s">
@@ -4040,13 +4022,13 @@
       </c>
     </row>
     <row r="28" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A28" s="2">
+      <c r="A28" s="4">
         <v>19</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="4">
         <v>10.4</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="4" t="s">
         <v>632</v>
       </c>
       <c r="D28" s="4" t="s">
@@ -4069,31 +4051,31 @@
       </c>
     </row>
     <row r="29" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="15">
+      <c r="A29" s="14">
         <v>20</v>
       </c>
-      <c r="B29" s="15">
+      <c r="B29" s="14">
         <v>11</v>
       </c>
-      <c r="C29" s="15" t="s">
+      <c r="C29" s="14" t="s">
         <v>636</v>
       </c>
-      <c r="D29" s="16" t="s">
+      <c r="D29" s="14" t="s">
         <v>588</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="14" t="s">
         <v>659</v>
       </c>
-      <c r="F29" s="16" t="s">
+      <c r="F29" s="14" t="s">
         <v>637</v>
       </c>
-      <c r="G29" s="16" t="s">
+      <c r="G29" s="14" t="s">
         <v>638</v>
       </c>
-      <c r="H29" s="16" t="s">
+      <c r="H29" s="14" t="s">
         <v>639</v>
       </c>
-      <c r="I29" s="16" t="s">
+      <c r="I29" s="14" t="s">
         <v>226</v>
       </c>
     </row>
@@ -4125,51 +4107,51 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="H2" s="28" t="s">
+      <c r="H2" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="29"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -4446,51 +4428,51 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="25" t="s">
         <v>563</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="G7" s="22" t="s">
+      <c r="G7" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="H7" s="22" t="s">
+      <c r="H7" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="I7" s="22" t="s">
+      <c r="I7" s="20" t="s">
         <v>100</v>
       </c>
     </row>
@@ -4553,31 +4535,31 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="16">
+      <c r="A10" s="14">
         <v>3</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="14">
         <v>2</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="14" t="s">
         <v>469</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="14" t="s">
         <v>466</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="14" t="s">
         <v>538</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="15" t="s">
         <v>470</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="14" t="s">
         <v>471</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="H10" s="14" t="s">
         <v>472</v>
       </c>
-      <c r="I10" s="18" t="s">
+      <c r="I10" s="16" t="s">
         <v>226</v>
       </c>
     </row>
@@ -4611,31 +4593,31 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="58" x14ac:dyDescent="0.35">
-      <c r="A12" s="16">
+      <c r="A12" s="14">
         <v>5</v>
       </c>
-      <c r="B12" s="16">
+      <c r="B12" s="14">
         <v>4</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="14" t="s">
         <v>477</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="14" t="s">
         <v>474</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="14" t="s">
         <v>557</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="14" t="s">
         <v>478</v>
       </c>
-      <c r="G12" s="16" t="s">
+      <c r="G12" s="14" t="s">
         <v>479</v>
       </c>
-      <c r="H12" s="16" t="s">
+      <c r="H12" s="14" t="s">
         <v>480</v>
       </c>
-      <c r="I12" s="18" t="s">
+      <c r="I12" s="16" t="s">
         <v>226</v>
       </c>
     </row>
@@ -4727,31 +4709,31 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A16" s="16">
+      <c r="A16" s="14">
         <v>9</v>
       </c>
-      <c r="B16" s="16">
+      <c r="B16" s="14">
         <v>6.1</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="14" t="s">
         <v>488</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="14" t="s">
         <v>489</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="14" t="s">
         <v>543</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="F16" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="G16" s="16" t="s">
+      <c r="G16" s="14" t="s">
         <v>490</v>
       </c>
-      <c r="H16" s="16" t="s">
+      <c r="H16" s="14" t="s">
         <v>491</v>
       </c>
-      <c r="I16" s="18" t="s">
+      <c r="I16" s="16" t="s">
         <v>226</v>
       </c>
     </row>
@@ -4988,31 +4970,31 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A25" s="16">
+      <c r="A25" s="14">
         <v>18</v>
       </c>
-      <c r="B25" s="16">
+      <c r="B25" s="14">
         <v>7.3</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="14" t="s">
         <v>511</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="D25" s="14" t="s">
         <v>512</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="14" t="s">
         <v>552</v>
       </c>
-      <c r="F25" s="16" t="s">
+      <c r="F25" s="14" t="s">
         <v>513</v>
       </c>
-      <c r="G25" s="16" t="s">
+      <c r="G25" s="14" t="s">
         <v>514</v>
       </c>
-      <c r="H25" s="16" t="s">
+      <c r="H25" s="14" t="s">
         <v>515</v>
       </c>
-      <c r="I25" s="18" t="s">
+      <c r="I25" s="16" t="s">
         <v>226</v>
       </c>
     </row>
@@ -5133,31 +5115,31 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A30" s="16">
+      <c r="A30" s="14">
         <v>23</v>
       </c>
-      <c r="B30" s="16">
+      <c r="B30" s="14">
         <v>7.3</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="C30" s="14" t="s">
         <v>525</v>
       </c>
-      <c r="D30" s="16" t="s">
+      <c r="D30" s="14" t="s">
         <v>526</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="14" t="s">
         <v>560</v>
       </c>
-      <c r="F30" s="16" t="s">
+      <c r="F30" s="14" t="s">
         <v>527</v>
       </c>
-      <c r="G30" s="16" t="s">
+      <c r="G30" s="14" t="s">
         <v>528</v>
       </c>
-      <c r="H30" s="16" t="s">
+      <c r="H30" s="14" t="s">
         <v>529</v>
       </c>
-      <c r="I30" s="18" t="s">
+      <c r="I30" s="16" t="s">
         <v>226</v>
       </c>
     </row>
@@ -5191,31 +5173,31 @@
       </c>
     </row>
     <row r="32" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="16">
+      <c r="A32" s="14">
         <v>25</v>
       </c>
-      <c r="B32" s="16">
+      <c r="B32" s="14">
         <v>6.4</v>
       </c>
-      <c r="C32" s="16" t="s">
+      <c r="C32" s="14" t="s">
         <v>534</v>
       </c>
-      <c r="D32" s="16" t="s">
+      <c r="D32" s="14" t="s">
         <v>535</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="14" t="s">
         <v>562</v>
       </c>
-      <c r="F32" s="16" t="s">
+      <c r="F32" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="G32" s="16" t="s">
+      <c r="G32" s="14" t="s">
         <v>536</v>
       </c>
-      <c r="H32" s="16" t="s">
+      <c r="H32" s="14" t="s">
         <v>537</v>
       </c>
-      <c r="I32" s="18" t="s">
+      <c r="I32" s="16" t="s">
         <v>226</v>
       </c>
     </row>
@@ -5236,8 +5218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE2C7AB7-0886-4D0B-A66E-B1D33702A258}">
   <dimension ref="A3:L29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:L6"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5247,47 +5229,47 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="G3" s="28" t="s">
+      <c r="G3" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="20" t="s">
         <v>86</v>
       </c>
     </row>
@@ -5541,81 +5523,81 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="F9" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="G9" s="22" t="s">
+      <c r="G9" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="H9" s="22" t="s">
+      <c r="H9" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="I9" s="22" t="s">
+      <c r="I9" s="20" t="s">
         <v>100</v>
       </c>
     </row>
@@ -6224,100 +6206,100 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="30"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="F9" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="G9" s="22" t="s">
+      <c r="G9" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="H9" s="22" t="s">
+      <c r="H9" s="20" t="s">
         <v>100</v>
       </c>
     </row>
@@ -6802,89 +6784,89 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="25" t="s">
         <v>304</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" s="28"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5" s="28"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
+      <c r="A5" s="25"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A6" s="28"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="20" t="s">
         <v>214</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="F9" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="G9" s="22" t="s">
+      <c r="G9" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="H9" s="22" t="s">
+      <c r="H9" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="I9" s="22" t="s">
+      <c r="I9" s="20" t="s">
         <v>100</v>
       </c>
     </row>
@@ -7633,7 +7615,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54287786-72BE-465D-B519-E303DE088559}">
   <dimension ref="A2:I24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -7648,66 +7630,66 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="28" t="s">
         <v>358</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="G8" s="20" t="s">
+      <c r="G8" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="H8" s="21" t="s">
+      <c r="H8" s="19" t="s">
         <v>100</v>
       </c>
     </row>
@@ -8102,7 +8084,7 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="I24" s="10"/>
+      <c r="I24" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
